--- a/trainingdata_A0001.xlsx
+++ b/trainingdata_A0001.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>age</t>
   </si>
@@ -96,14 +96,25 @@
   </si>
   <si>
     <t>GEH_feature24</t>
+  </si>
+  <si>
+    <t>class1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,8 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:X12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +511,11 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>74</v>
       </c>
@@ -568,8 +588,19 @@
       <c r="X2">
         <v>5506784.4233586602</v>
       </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>49</v>
       </c>
@@ -642,8 +673,19 @@
       <c r="X3">
         <v>10329878.068327796</v>
       </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>81</v>
       </c>
@@ -716,8 +758,19 @@
       <c r="X4">
         <v>5990694.8792918259</v>
       </c>
+      <c r="Y4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45</v>
       </c>
@@ -790,8 +843,19 @@
       <c r="X5">
         <v>15276189.185099922</v>
       </c>
+      <c r="Y5" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
@@ -864,8 +928,19 @@
       <c r="X6">
         <v>13951734.017597683</v>
       </c>
+      <c r="Y6" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>29</v>
       </c>
@@ -938,8 +1013,19 @@
       <c r="X7">
         <v>29716548.496092722</v>
       </c>
+      <c r="Y7" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>74</v>
       </c>
@@ -1012,8 +1098,19 @@
       <c r="X8">
         <v>9156094.9184415638</v>
       </c>
+      <c r="Y8" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -1086,8 +1183,19 @@
       <c r="X9">
         <v>23761783.930400953</v>
       </c>
+      <c r="Y9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -1160,8 +1268,19 @@
       <c r="X10">
         <v>25337394.075597178</v>
       </c>
+      <c r="Y10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>82</v>
       </c>
@@ -1234,8 +1353,19 @@
       <c r="X11">
         <v>21409608.771072324</v>
       </c>
+      <c r="Y11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>87</v>
       </c>
@@ -1308,8 +1438,23 @@
       <c r="X12">
         <v>26708501.591055259</v>
       </c>
+      <c r="Y12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Z16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>